--- a/Leetcode_Summary.xlsx
+++ b/Leetcode_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Google Drive/Other computers/Devices/Space/Utah MS/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4ADD84-F5CB-D646-B84E-3B84FDB4249C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AB786B-3C2D-BE4E-AB47-D04FF183369D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{F95C9F01-3399-9148-8256-E89B7FDD342B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{F95C9F01-3399-9148-8256-E89B7FDD342B}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic_Interview_question" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
   <si>
     <t>#</t>
   </si>
@@ -226,6 +226,48 @@
   </si>
   <si>
     <t>Sort followed by two sum II approach</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>bit-manipulation</t>
+  </si>
+  <si>
+    <t>Sum of Two Integers</t>
+  </si>
+  <si>
+    <t>One needs to know the specific implementation in python. General idea is to use xor and shifter add for add. For subtraction we need to bitinvert the first operand.</t>
+  </si>
+  <si>
+    <t>Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>apple | microsoft</t>
+  </si>
+  <si>
+    <t>The trick is to sample last bit by anding it with 1</t>
+  </si>
+  <si>
+    <t>dynamic-programming | bit-manipulation</t>
+  </si>
+  <si>
+    <t>Counting Bits</t>
+  </si>
+  <si>
+    <t>This was a medium level problem where we need to use dp with a few base case</t>
+  </si>
+  <si>
+    <t>array | math | bit-manipulation</t>
+  </si>
+  <si>
+    <t>bloomberg | microsoft</t>
+  </si>
+  <si>
+    <t>Missing Number</t>
+  </si>
+  <si>
+    <t>Simple linear algorithm with if in array, nlogn, however a^b^b = a method can give linear solution</t>
   </si>
 </sst>
 </file>
@@ -241,7 +283,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +293,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -288,6 +336,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -604,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED56E0F7-A982-AE43-A354-1E52B99B18E0}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -950,34 +1001,111 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E18" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="2">
+        <v>371</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="2">
+        <v>191</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="2">
+        <v>338</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="2">
+        <v>268</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D26" s="2">
         <v>17</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Leetcode_Summary.xlsx
+++ b/Leetcode_Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Google Drive/Other computers/Devices/Space/Utah MS/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AB786B-3C2D-BE4E-AB47-D04FF183369D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C18A4A-15EC-3941-ACF2-B6F283AF174C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{F95C9F01-3399-9148-8256-E89B7FDD342B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
   <si>
     <t>#</t>
   </si>
@@ -268,6 +268,15 @@
   </si>
   <si>
     <t>Simple linear algorithm with if in array, nlogn, however a^b^b = a method can give linear solution</t>
+  </si>
+  <si>
+    <t>Reverse Bits</t>
+  </si>
+  <si>
+    <t>airbnb | apple</t>
+  </si>
+  <si>
+    <t>Sample each bit by shifting and anding with 1 followed by placing in appropriate place by oring</t>
   </si>
 </sst>
 </file>
@@ -658,7 +667,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1081,6 +1090,26 @@
         <v>77</v>
       </c>
     </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="2">
+        <v>190</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>

--- a/Leetcode_Summary.xlsx
+++ b/Leetcode_Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Google Drive/Other computers/Devices/Space/Utah MS/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C18A4A-15EC-3941-ACF2-B6F283AF174C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84487CD-3D4D-6A41-8C70-06C75FE14DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{F95C9F01-3399-9148-8256-E89B7FDD342B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
   <si>
     <t>#</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Two pointer approach</t>
   </si>
   <si>
-    <t>DP</t>
-  </si>
-  <si>
     <t>Company</t>
   </si>
   <si>
@@ -277,6 +274,34 @@
   </si>
   <si>
     <t>Sample each bit by shifting and anding with 1 followed by placing in appropriate place by oring</t>
+  </si>
+  <si>
+    <t>Coin Change</t>
+  </si>
+  <si>
+    <t>Classic DP problem: Iterate over amount and then coins. Return -1 if we have default value</t>
+  </si>
+  <si>
+    <t>dynamic-programming</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>binary-search | dynamic-programming</t>
+  </si>
+  <si>
+    <t>We need start checking from the right and keep in mind the definition for substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stack | tree
+</t>
+  </si>
+  <si>
+    <t>Binary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>Fundamental Problem: Easiest solution is using the recursion, iterative solution will use stack, stack is LIFO, so add to stack in the reverse order. Perform initial Null check</t>
   </si>
 </sst>
 </file>
@@ -292,7 +317,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,6 +336,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -324,31 +355,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,478 +692,551 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED56E0F7-A982-AE43-A354-1E52B99B18E0}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="49.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="114.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="114.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D2" s="1">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="C3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="1">
+        <v>198</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="1">
+        <v>198</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="1">
+        <v>213</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>55</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="D2" s="2">
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1037</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1">
+        <v>153</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1">
+        <v>69</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1">
+        <v>704</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1">
+        <v>33</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1">
+        <v>167</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1">
+        <v>15</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1">
+        <v>371</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1">
+        <v>191</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="1">
+        <v>338</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="1">
+        <v>268</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="1">
+        <v>190</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="1">
+        <v>322</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="1">
+        <v>300</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="1">
+        <v>144</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E29" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="1">
+        <v>17</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>198</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>198</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2">
-        <v>213</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2">
-        <v>55</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2">
-        <v>5</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="2">
-        <v>11</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="2">
-        <v>42</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1037</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="2">
-        <v>153</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="2">
-        <v>69</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="2">
-        <v>704</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="2">
-        <v>33</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="2">
-        <v>167</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="2">
-        <v>15</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="2">
-        <v>371</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="2">
-        <v>191</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="2">
-        <v>338</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="2">
-        <v>268</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="2">
-        <v>190</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="2">
-        <v>17</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Leetcode_Summary.xlsx
+++ b/Leetcode_Summary.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Google Drive/Other computers/Devices/Space/Utah MS/Leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-105719290430595533675/Other computers/Devices/Space/Utah MS/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84487CD-3D4D-6A41-8C70-06C75FE14DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B490AF-5384-3B43-87D3-6EF0EE364E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{F95C9F01-3399-9148-8256-E89B7FDD342B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{F95C9F01-3399-9148-8256-E89B7FDD342B}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic_Interview_question" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="97">
   <si>
     <t>#</t>
   </si>
@@ -302,6 +304,30 @@
   </si>
   <si>
     <t>Fundamental Problem: Easiest solution is using the recursion, iterative solution will use stack, stack is LIFO, so add to stack in the reverse order. Perform initial Null check</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Wasim Ratio</t>
+  </si>
+  <si>
+    <t>Hamza Ratio</t>
+  </si>
+  <si>
+    <t>Sachin Ratio</t>
+  </si>
+  <si>
+    <t>Wasim Pay</t>
+  </si>
+  <si>
+    <t>Hamza Pay</t>
+  </si>
+  <si>
+    <t>Sachin pay</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
   </si>
 </sst>
 </file>
@@ -694,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED56E0F7-A982-AE43-A354-1E52B99B18E0}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1242,4 +1268,112 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763481C3-4622-2C45-87C5-BEC750694C6F}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1299</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
+        <v>0.3</v>
+      </c>
+      <c r="E2">
+        <f>A2*B2/(B2+C2+D2)</f>
+        <v>519.6</v>
+      </c>
+      <c r="F2">
+        <f>A2*C2/(B2+C2+D2)</f>
+        <v>389.7</v>
+      </c>
+      <c r="G2">
+        <f>A2*D2/(B2+C2+D2)</f>
+        <v>389.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>11.99+125.22</f>
+        <v>137.21</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>A3*B3/(B3+C3+D3)</f>
+        <v>45.736666666666672</v>
+      </c>
+      <c r="F3">
+        <f>A3*C3/(B3+C3+D3)</f>
+        <v>45.736666666666672</v>
+      </c>
+      <c r="G3">
+        <f>A3*D3/(B3+C3+D3)</f>
+        <v>45.736666666666672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5">
+        <f>SUM(E2:E3)</f>
+        <v>565.3366666666667</v>
+      </c>
+      <c r="F5">
+        <f>SUM(F2:F3)</f>
+        <v>435.43666666666667</v>
+      </c>
+      <c r="G5">
+        <f>SUM(G2:G3)</f>
+        <v>435.43666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>